--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Spring.011420.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Cornish.Spring.011420.xlsx_with_dialog_acts.xlsx
@@ -779,12 +779,12 @@
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1923,12 +1923,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2987,12 +2987,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3371,12 +3371,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4013,12 +4013,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4313,12 +4313,12 @@
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4577,12 +4577,12 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5527,12 +5527,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5907,12 +5907,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6097,12 +6097,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6325,12 +6325,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6439,12 +6439,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6629,12 +6629,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7085,12 +7085,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7199,12 +7199,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7275,12 +7275,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7389,12 +7389,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7579,12 +7579,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8501,12 +8501,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9337,12 +9337,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9451,12 +9451,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9869,12 +9869,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10249,12 +10249,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10325,12 +10325,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10363,12 +10363,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10557,12 +10557,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10865,12 +10865,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11245,12 +11245,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11549,12 +11549,12 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11815,12 +11815,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12047,12 +12047,12 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12085,12 +12085,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12621,12 +12621,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13575,12 +13575,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13925,12 +13925,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14693,12 +14693,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15073,12 +15073,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15263,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15567,12 +15567,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16533,12 +16533,12 @@
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16571,12 +16571,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16875,12 +16875,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17567,12 +17567,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19137,12 +19137,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19331,12 +19331,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19369,12 +19369,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19559,12 +19559,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19597,12 +19597,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19863,12 +19863,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19977,12 +19977,12 @@
       <c r="H512" t="inlineStr"/>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20243,12 +20243,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20357,12 +20357,12 @@
       </c>
       <c r="I522" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20433,12 +20433,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20627,12 +20627,12 @@
       <c r="H529" t="inlineStr"/>
       <c r="I529" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J529" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20741,12 +20741,12 @@
       <c r="H532" t="inlineStr"/>
       <c r="I532" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J532" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20779,12 +20779,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20817,12 +20817,12 @@
       </c>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20855,12 +20855,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20893,12 +20893,12 @@
       </c>
       <c r="I536" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J536" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20969,12 +20969,12 @@
       </c>
       <c r="I538" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21083,12 +21083,12 @@
       </c>
       <c r="I541" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21163,12 +21163,12 @@
       </c>
       <c r="I543" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J543" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21391,12 +21391,12 @@
       <c r="H549" t="inlineStr"/>
       <c r="I549" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21429,12 +21429,12 @@
       <c r="H550" t="inlineStr"/>
       <c r="I550" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J550" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21581,12 +21581,12 @@
       </c>
       <c r="I554" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J554" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21771,12 +21771,12 @@
       </c>
       <c r="I559" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21927,12 +21927,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22193,12 +22193,12 @@
       </c>
       <c r="I570" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22273,12 +22273,12 @@
       </c>
       <c r="I572" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22311,12 +22311,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22657,12 +22657,12 @@
       <c r="H582" t="inlineStr"/>
       <c r="I582" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J582" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22695,12 +22695,12 @@
       </c>
       <c r="I583" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J583" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23345,12 +23345,12 @@
       </c>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -23425,12 +23425,12 @@
       </c>
       <c r="I602" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24037,12 +24037,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24075,12 +24075,12 @@
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24151,12 +24151,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24265,12 +24265,12 @@
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24455,12 +24455,12 @@
       <c r="H629" t="inlineStr"/>
       <c r="I629" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J629" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25029,12 +25029,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26751,12 +26751,12 @@
       </c>
       <c r="I689" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J689" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26869,12 +26869,12 @@
       <c r="H692" t="inlineStr"/>
       <c r="I692" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J692" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27667,12 +27667,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28047,12 +28047,12 @@
       <c r="H723" t="inlineStr"/>
       <c r="I723" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28123,12 +28123,12 @@
       <c r="H725" t="inlineStr"/>
       <c r="I725" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28275,12 +28275,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28963,12 +28963,12 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J747" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29195,12 +29195,12 @@
       <c r="H753" t="inlineStr"/>
       <c r="I753" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J753" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29385,12 +29385,12 @@
       <c r="H758" t="inlineStr"/>
       <c r="I758" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J758" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29613,12 +29613,12 @@
       <c r="H764" t="inlineStr"/>
       <c r="I764" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30153,12 +30153,12 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J778" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30267,12 +30267,12 @@
       <c r="H781" t="inlineStr"/>
       <c r="I781" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J781" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -30381,12 +30381,12 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J784" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30807,12 +30807,12 @@
       <c r="H795" t="inlineStr"/>
       <c r="I795" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J795" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
